--- a/UnitTests/Tests/Bonds.xlsx
+++ b/UnitTests/Tests/Bonds.xlsx
@@ -644,7 +644,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <f>IF(ISERROR(B3),"ERROR",IF(ISERROR(C3),"FAIL",IF(B3=C3,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
       <c r="E3">
@@ -660,7 +660,7 @@
         <v>60</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f t="shared" ref="D4:D54" si="0">IF(B4=C4,"PASS","FAIL")</f>
+        <f t="shared" ref="D4:D54" si="0">IF(ISERROR(B4),"ERROR",IF(ISERROR(C4),"FAIL",IF(B4=C4,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
       <c r="E4" t="str">
@@ -1303,9 +1303,9 @@
       <c r="B44" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D44" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="D44" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E44" t="e">
         <f>_xll.qlBondSetCouponPricer()</f>
@@ -1319,9 +1319,9 @@
       <c r="B45" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D45" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="D45" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E45" t="e">
         <f>_xll.qlBondSetCouponPricers()</f>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="K46" t="str">
         <f>_xll.qlInterestRate(,1,"actual/360","simple","annual")</f>
-        <v>obj_00001#0000</v>
+        <v>obj_00003#0000</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="K47" t="str">
         <f>_xll.qlInterestRate(,2,"actual/360","simple","annual")</f>
-        <v>obj_00004#0000</v>
+        <v>obj_00002#0000</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G48" t="str">
         <f>_xll.qlIborIndex(,"euribor","1d",2,"eur","target","mf",TRUE,"actual/360")</f>
-        <v>obj_00003#0000</v>
+        <v>obj_00004#0000</v>
       </c>
       <c r="I48" s="4">
         <f t="shared" si="1"/>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="K48" t="str">
         <f>_xll.qlInterestRate(,3,"actual/360","simple","annual")</f>
-        <v>obj_00002#0000</v>
+        <v>obj_00001#0000</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="G51" t="str">
         <f>_xll.qlLeg(,J46:J48,I46:I48)</f>
-        <v>obj_0000c#0000</v>
+        <v>obj_00008#0000</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1484,9 +1484,9 @@
       <c r="B52" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D52" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+      <c r="D52" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E52" t="e">
         <f>_xll.qlBondAlive(E51,I47)</f>

--- a/UnitTests/Tests/Bonds.xlsx
+++ b/UnitTests/Tests/Bonds.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>Function</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>bond06</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -1037,7 +1040,7 @@
       </c>
       <c r="G27" t="str">
         <f>_xll.qlFlatForward(,0,"target",1,"actual/360","simple","annual")</f>
-        <v>obj_00000#0000</v>
+        <v>obj_00003#0000</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1360,7 +1363,7 @@
       </c>
       <c r="K46" t="str">
         <f>_xll.qlInterestRate(,1,"actual/360","simple","annual")</f>
-        <v>obj_00003#0000</v>
+        <v>obj_00001#0000</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -1387,7 +1390,7 @@
       </c>
       <c r="K47" t="str">
         <f>_xll.qlInterestRate(,2,"actual/360","simple","annual")</f>
-        <v>obj_00002#0000</v>
+        <v>obj_00004#0000</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -1407,7 +1410,7 @@
       </c>
       <c r="G48" t="str">
         <f>_xll.qlIborIndex(,"euribor","1d",2,"eur","target","mf",TRUE,"actual/360")</f>
-        <v>obj_00004#0000</v>
+        <v>obj_00002#0000</v>
       </c>
       <c r="I48" s="4">
         <f t="shared" si="1"/>
@@ -1418,7 +1421,7 @@
       </c>
       <c r="K48" t="str">
         <f>_xll.qlInterestRate(,3,"actual/360","simple","annual")</f>
-        <v>obj_00001#0000</v>
+        <v>obj_00000#0000</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1474,7 +1477,7 @@
       </c>
       <c r="G51" t="str">
         <f>_xll.qlLeg(,J46:J48,I46:I48)</f>
-        <v>obj_00008#0000</v>
+        <v>obj_00009#0000</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1496,6 +1499,9 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>58</v>
+      </c>
+      <c r="B53" t="s">
+        <v>71</v>
       </c>
       <c r="D53" s="3" t="str">
         <f t="shared" si="0"/>

--- a/UnitTests/Tests/Bonds.xlsx
+++ b/UnitTests/Tests/Bonds.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>Function</t>
   </si>
@@ -213,28 +213,10 @@
     <t>Payment Date</t>
   </si>
   <si>
-    <t>bond01#0000</t>
-  </si>
-  <si>
-    <t>bond02#0000</t>
-  </si>
-  <si>
-    <t>bond03#0000</t>
-  </si>
-  <si>
-    <t>bond04#0000</t>
-  </si>
-  <si>
-    <t>bond05#0000</t>
-  </si>
-  <si>
-    <t>bond06#0000</t>
-  </si>
-  <si>
-    <t>bond06</t>
-  </si>
-  <si>
     <t/>
+  </si>
+  <si>
+    <t>obj_0000c</t>
   </si>
 </sst>
 </file>
@@ -651,7 +633,7 @@
         <v>FAIL</v>
       </c>
       <c r="E3">
-        <f>_xll.qlBondSettlementDays(E51)</f>
+        <f>_xll.qlBondSettlementDays(F51)</f>
         <v>2</v>
       </c>
     </row>
@@ -667,7 +649,7 @@
         <v>FAIL</v>
       </c>
       <c r="E4" t="str">
-        <f>_xll.qlBondCalendar(E51)</f>
+        <f>_xll.qlBondCalendar(F51)</f>
         <v>TARGET</v>
       </c>
     </row>
@@ -683,7 +665,7 @@
         <v>FAIL</v>
       </c>
       <c r="E5">
-        <f>_xll.qlBondNotionals(E51)</f>
+        <f>_xll.qlBondNotionals(F51)</f>
         <v>100</v>
       </c>
     </row>
@@ -699,7 +681,7 @@
         <v>PASS</v>
       </c>
       <c r="E6">
-        <f>_xll.qlBondNotional(E51)</f>
+        <f>_xll.qlBondNotional(F51)</f>
         <v>0</v>
       </c>
     </row>
@@ -715,7 +697,7 @@
         <v>FAIL</v>
       </c>
       <c r="E7">
-        <f>_xll.qlBondMaturityDate(E51)</f>
+        <f>_xll.qlBondMaturityDate(F51)</f>
         <v>42647</v>
       </c>
     </row>
@@ -731,7 +713,7 @@
         <v>FAIL</v>
       </c>
       <c r="E8">
-        <f>_xll.qlBondIssueDate(E51)</f>
+        <f>_xll.qlBondIssueDate(F51)</f>
         <v>42644</v>
       </c>
     </row>
@@ -747,7 +729,7 @@
         <v>PASS</v>
       </c>
       <c r="E9" t="b">
-        <f>_xll.qlBondIsTradable(E51)</f>
+        <f>_xll.qlBondIsTradable(F51)</f>
         <v>0</v>
       </c>
     </row>
@@ -763,7 +745,7 @@
         <v>FAIL</v>
       </c>
       <c r="E10">
-        <f>_xll.qlBondSettlementDate(E51)</f>
+        <f>_xll.qlBondSettlementDate(F51)</f>
         <v>42647</v>
       </c>
     </row>
@@ -779,7 +761,7 @@
         <v>FAIL</v>
       </c>
       <c r="E11">
-        <f>_xll.qlBondStartDate(E51)</f>
+        <f>_xll.qlBondStartDate(F51)</f>
         <v>42645</v>
       </c>
     </row>
@@ -795,7 +777,7 @@
         <v>FAIL</v>
       </c>
       <c r="E12">
-        <f>_xll.qlBondPreviousCashFlowDate(E51)</f>
+        <f>_xll.qlBondPreviousCashFlowDate(F51)</f>
         <v>42647</v>
       </c>
     </row>
@@ -811,7 +793,7 @@
         <v>PASS</v>
       </c>
       <c r="E13">
-        <f>_xll.qlBondNextCashFlowDate(E51)</f>
+        <f>_xll.qlBondNextCashFlowDate(F51)</f>
         <v>0</v>
       </c>
     </row>
@@ -827,7 +809,7 @@
         <v>FAIL</v>
       </c>
       <c r="E14">
-        <f>_xll.qlBondPreviousCashFlowAmount(E51)</f>
+        <f>_xll.qlBondPreviousCashFlowAmount(F51)</f>
         <v>3</v>
       </c>
     </row>
@@ -843,7 +825,7 @@
         <v>PASS</v>
       </c>
       <c r="E15">
-        <f>_xll.qlBondNextCashFlowAmount(E51)</f>
+        <f>_xll.qlBondNextCashFlowAmount(F51)</f>
         <v>0</v>
       </c>
     </row>
@@ -859,7 +841,7 @@
         <v>FAIL</v>
       </c>
       <c r="E16">
-        <f>_xll.qlBondPreviousCouponRate(E47)</f>
+        <f>_xll.qlBondPreviousCouponRate(F47)</f>
         <v>3</v>
       </c>
     </row>
@@ -875,7 +857,7 @@
         <v>PASS</v>
       </c>
       <c r="E17">
-        <f>_xll.qlBondNextCouponRate(E47)</f>
+        <f>_xll.qlBondNextCouponRate(F47)</f>
         <v>0</v>
       </c>
     </row>
@@ -891,7 +873,7 @@
         <v>PASS</v>
       </c>
       <c r="E18">
-        <f>_xll.qlBondAccrualStartDate(E51,I47)</f>
+        <f>_xll.qlBondAccrualStartDate(F51,I47)</f>
         <v>0</v>
       </c>
     </row>
@@ -907,7 +889,7 @@
         <v>PASS</v>
       </c>
       <c r="E19">
-        <f>_xll.qlBondAccrualEndDate(E51,I47)</f>
+        <f>_xll.qlBondAccrualEndDate(F51,I47)</f>
         <v>0</v>
       </c>
     </row>
@@ -923,7 +905,7 @@
         <v>PASS</v>
       </c>
       <c r="E20">
-        <f>_xll.qlBondReferencePeriodStart(E51,I47)</f>
+        <f>_xll.qlBondReferencePeriodStart(F51,I47)</f>
         <v>0</v>
       </c>
     </row>
@@ -939,7 +921,7 @@
         <v>PASS</v>
       </c>
       <c r="E21">
-        <f>_xll.qlBondReferencePeriodEnd(E51,I47)</f>
+        <f>_xll.qlBondReferencePeriodEnd(F51,I47)</f>
         <v>0</v>
       </c>
     </row>
@@ -955,7 +937,7 @@
         <v>PASS</v>
       </c>
       <c r="E22">
-        <f>_xll.qlBondAccrualPeriod(E51,I47)</f>
+        <f>_xll.qlBondAccrualPeriod(F51,I47)</f>
         <v>0</v>
       </c>
     </row>
@@ -971,7 +953,7 @@
         <v>PASS</v>
       </c>
       <c r="E23">
-        <f>_xll.qlBondAccrualDays(E51,I47)</f>
+        <f>_xll.qlBondAccrualDays(F51,I47)</f>
         <v>0</v>
       </c>
     </row>
@@ -987,7 +969,7 @@
         <v>PASS</v>
       </c>
       <c r="E24">
-        <f>_xll.qlBondAccruedPeriod(E51,I47)</f>
+        <f>_xll.qlBondAccruedPeriod(F51,I47)</f>
         <v>0</v>
       </c>
     </row>
@@ -1003,7 +985,7 @@
         <v>PASS</v>
       </c>
       <c r="E25">
-        <f>_xll.qlBondAccruedDays(E51,I47)</f>
+        <f>_xll.qlBondAccruedDays(F51,I47)</f>
         <v>0</v>
       </c>
     </row>
@@ -1019,7 +1001,7 @@
         <v>PASS</v>
       </c>
       <c r="E26">
-        <f>_xll.qlBondAccruedAmount(E51,I47)</f>
+        <f>_xll.qlBondAccruedAmount(F51,I47)</f>
         <v>0</v>
       </c>
     </row>
@@ -1035,12 +1017,12 @@
         <v>FAIL</v>
       </c>
       <c r="E27">
-        <f>_xll.qlBondCleanPriceFromYieldTermStructure(E51,G27,I47)</f>
+        <f>_xll.qlBondCleanPriceFromYieldTermStructure(F51,G27,I47)</f>
         <v>2.9916897506925206</v>
       </c>
       <c r="G27" t="str">
         <f>_xll.qlFlatForward(,0,"target",1,"actual/360","simple","annual")</f>
-        <v>obj_00003#0000</v>
+        <v>obj_00002#0002</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1055,7 +1037,7 @@
         <v>PASS</v>
       </c>
       <c r="E28">
-        <f>_xll.qlBondBpsFromYieldTermStructure(E51,G27,I47)</f>
+        <f>_xll.qlBondBpsFromYieldTermStructure(F51,G27,I47)</f>
         <v>0</v>
       </c>
     </row>
@@ -1071,7 +1053,7 @@
         <v>FAIL</v>
       </c>
       <c r="E29">
-        <f>_xll.qlBondAtmRateFromYieldTermStructure(E47,G27,I47,100)</f>
+        <f>_xll.qlBondAtmRateFromYieldTermStructure(F47,G27,I47,100)</f>
         <v>0.99999999999997435</v>
       </c>
     </row>
@@ -1087,7 +1069,7 @@
         <v>FAIL</v>
       </c>
       <c r="E30">
-        <f>_xll.qlBondCleanPriceFromYield(E51,1,"actual/360","simple","annual",I47)</f>
+        <f>_xll.qlBondCleanPriceFromYield(F51,1,"actual/360","simple","annual",I47)</f>
         <v>2.9916897506925206</v>
       </c>
     </row>
@@ -1103,7 +1085,7 @@
         <v>FAIL</v>
       </c>
       <c r="E31">
-        <f>_xll.qlBondDirtyPriceFromYield(E51,1,"actual/360","simple","annual",I47)</f>
+        <f>_xll.qlBondDirtyPriceFromYield(F51,1,"actual/360","simple","annual",I47)</f>
         <v>2.9916897506925206</v>
       </c>
     </row>
@@ -1119,7 +1101,7 @@
         <v>PASS</v>
       </c>
       <c r="E32">
-        <f>_xll.qlBondBpsFromYield(E51,1,"actual/360","simple","annual",I47)</f>
+        <f>_xll.qlBondBpsFromYield(F51,1,"actual/360","simple","annual",I47)</f>
         <v>0</v>
       </c>
     </row>
@@ -1135,7 +1117,7 @@
         <v>FAIL</v>
       </c>
       <c r="E33">
-        <f>_xll.qlBondYieldFromCleanPrice(E51,1,"actual/360","simple","annual",I47,0.0000000001,100,0.05)</f>
+        <f>_xll.qlBondYieldFromCleanPrice(F51,1,"actual/360","simple","annual",I47,0.0000000001,100,0.05)</f>
         <v>720</v>
       </c>
     </row>
@@ -1151,7 +1133,7 @@
         <v>FAIL</v>
       </c>
       <c r="E34">
-        <f>_xll.qlBondDurationFromYield(E51,1,"actual/360","simple","annual","modified",I47)</f>
+        <f>_xll.qlBondDurationFromYield(F51,1,"actual/360","simple","annual","modified",I47)</f>
         <v>2.7700831024930748E-3</v>
       </c>
     </row>
@@ -1167,7 +1149,7 @@
         <v>FAIL</v>
       </c>
       <c r="E35">
-        <f>_xll.qlBondConvexityFromYield(E51,1,"actual/360","simple","annual",I47)</f>
+        <f>_xll.qlBondConvexityFromYield(F51,1,"actual/360","simple","annual",I47)</f>
         <v>1.5346720789435321E-5</v>
       </c>
     </row>
@@ -1183,7 +1165,7 @@
         <v>FAIL</v>
       </c>
       <c r="E36">
-        <f>_xll.qlBondCleanPriceFromZSpread(E51,G27,1,"actual/360","simple","annual",I47)</f>
+        <f>_xll.qlBondCleanPriceFromZSpread(F51,G27,1,"actual/360","simple","annual",I47)</f>
         <v>2.9834254143646408</v>
       </c>
     </row>
@@ -1199,7 +1181,7 @@
         <v>FAIL</v>
       </c>
       <c r="E37">
-        <f>_xll.qlBondZSpreadFromCleanPrice(E51,1,G27,"actual/360","simple","annual",I47,0.0000000001,100,0)</f>
+        <f>_xll.qlBondZSpreadFromCleanPrice(F51,1,G27,"actual/360","simple","annual",I47,0.0000000001,100,0)</f>
         <v>718.99999999999989</v>
       </c>
     </row>
@@ -1215,7 +1197,7 @@
         <v>PASS</v>
       </c>
       <c r="E38">
-        <f>_xll.qlBondCleanPrice(E51)</f>
+        <f>_xll.qlBondCleanPrice(F51)</f>
         <v>0</v>
       </c>
     </row>
@@ -1231,7 +1213,7 @@
         <v>FAIL</v>
       </c>
       <c r="E39" t="str">
-        <f>_xll.qlBondDescription(E51)</f>
+        <f>_xll.qlBondDescription(F51)</f>
         <v>abc</v>
       </c>
     </row>
@@ -1247,7 +1229,7 @@
         <v>FAIL</v>
       </c>
       <c r="E40" t="str">
-        <f>_xll.qlBondCurrency(E51)</f>
+        <f>_xll.qlBondCurrency(F51)</f>
         <v>EUR</v>
       </c>
     </row>
@@ -1263,7 +1245,7 @@
         <v>FAIL</v>
       </c>
       <c r="E41">
-        <f>_xll.qlBondRedemptionAmount(E51)</f>
+        <f>_xll.qlBondRedemptionAmount(F51)</f>
         <v>3</v>
       </c>
     </row>
@@ -1279,7 +1261,7 @@
         <v>FAIL</v>
       </c>
       <c r="E42">
-        <f>_xll.qlBondRedemptionDate(E51)</f>
+        <f>_xll.qlBondRedemptionDate(F51)</f>
         <v>42647</v>
       </c>
     </row>
@@ -1295,7 +1277,7 @@
         <v>FAIL</v>
       </c>
       <c r="E43" t="str">
-        <f>_xll.qlBondFlowAnalysis(E51,I47)</f>
+        <f>_xll.qlBondFlowAnalysis(F51,I47)</f>
         <v>Payment Date</v>
       </c>
     </row>
@@ -1339,20 +1321,24 @@
       <c r="A46" t="s">
         <v>51</v>
       </c>
-      <c r="B46" t="s">
-        <v>64</v>
+      <c r="B46" t="b">
+        <v>0</v>
       </c>
       <c r="D46" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E46" t="str">
-        <f>_xll.qlFixedRateBond("bond01","abc","eur",2,100,G46,J46:J48,"actual/360","mf",100,I46,"target")</f>
-        <v>bond01#0000</v>
+        <v>PASS</v>
+      </c>
+      <c r="E46" t="b">
+        <f>ISERROR(F46)</f>
+        <v>0</v>
+      </c>
+      <c r="F46" t="str">
+        <f>_xll.qlFixedRateBond(,"abc","eur",2,100,G46,J46:J48,"actual/360","mf",100,I46,"target")</f>
+        <v>obj_00007#0003</v>
       </c>
       <c r="G46" t="str">
         <f>_xll.qlSchedule(,I46,I48,"1D","target","mf","mf","backward",TRUE)</f>
-        <v>obj_00006#0000</v>
+        <v>obj_00006#0002</v>
       </c>
       <c r="I46" s="4">
         <f>I45+1</f>
@@ -1363,26 +1349,30 @@
       </c>
       <c r="K46" t="str">
         <f>_xll.qlInterestRate(,1,"actual/360","simple","annual")</f>
-        <v>obj_00001#0000</v>
+        <v>obj_00004#0002</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
-      <c r="B47" t="s">
-        <v>65</v>
+      <c r="B47" t="b">
+        <v>0</v>
       </c>
       <c r="D47" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E47" t="str">
-        <f>_xll.qlFixedRateBond2("bond02","abc","EUR",2,100,G46,K48,"mf",100,I46,"target")</f>
-        <v>bond02#0000</v>
+        <v>PASS</v>
+      </c>
+      <c r="E47" t="b">
+        <f t="shared" ref="E47:E51" si="1">ISERROR(F47)</f>
+        <v>0</v>
+      </c>
+      <c r="F47" t="str">
+        <f>_xll.qlFixedRateBond2(,"abc","EUR",2,100,G46,K48,"mf",100,I46,"target")</f>
+        <v>obj_00009#0003</v>
       </c>
       <c r="I47" s="4">
-        <f t="shared" ref="I47:I48" si="1">I46+1</f>
+        <f t="shared" ref="I47:I48" si="2">I46+1</f>
         <v>42646</v>
       </c>
       <c r="J47">
@@ -1390,30 +1380,34 @@
       </c>
       <c r="K47" t="str">
         <f>_xll.qlInterestRate(,2,"actual/360","simple","annual")</f>
-        <v>obj_00004#0000</v>
+        <v>obj_00001#0002</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>53</v>
       </c>
-      <c r="B48" t="s">
-        <v>66</v>
+      <c r="B48" t="b">
+        <v>0</v>
       </c>
       <c r="D48" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E48" t="str">
-        <f>_xll.qlFloatingRateBond("bond03","abc","eur",2,"mf",100,G46,2,FALSE,"actual/360",1,1,G48,0,2,100,+I46)</f>
-        <v>bond03#0000</v>
+        <v>PASS</v>
+      </c>
+      <c r="E48" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F48" t="str">
+        <f>_xll.qlFloatingRateBond(,"abc","eur",2,"mf",100,G46,2,FALSE,"actual/360",1,1,G48,0,2,100,+I46)</f>
+        <v>obj_00008#0003</v>
       </c>
       <c r="G48" t="str">
         <f>_xll.qlIborIndex(,"euribor","1d",2,"eur","target","mf",TRUE,"actual/360")</f>
-        <v>obj_00002#0000</v>
+        <v>obj_00000#0002</v>
       </c>
       <c r="I48" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42647</v>
       </c>
       <c r="J48">
@@ -1421,63 +1415,75 @@
       </c>
       <c r="K48" t="str">
         <f>_xll.qlInterestRate(,3,"actual/360","simple","annual")</f>
-        <v>obj_00000#0000</v>
+        <v>obj_00003#0002</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>54</v>
       </c>
-      <c r="B49" t="s">
-        <v>67</v>
+      <c r="B49" t="b">
+        <v>0</v>
       </c>
       <c r="D49" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E49" t="str">
-        <f>_xll.qlCmsRateBond("bond04","abc","eur",2,"mf",100,+G46,2,FALSE,"actual/360",1,1,G49,0,2,100,I46)</f>
-        <v>bond04#0000</v>
+        <v>PASS</v>
+      </c>
+      <c r="E49" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F49" t="str">
+        <f>_xll.qlCmsRateBond(,"abc","eur",2,"mf",100,+G46,2,FALSE,"actual/360",1,1,G49,0,2,100,I46)</f>
+        <v>obj_0000d#0003</v>
       </c>
       <c r="G49" t="str">
         <f>_xll.qlSwapIndex(,"euribor","1d",2,"eur","target","1d","mf","actual/360",G48)</f>
-        <v>obj_00005#0000</v>
+        <v>obj_00005#0002</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>55</v>
       </c>
-      <c r="B50" t="s">
-        <v>68</v>
+      <c r="B50" t="b">
+        <v>0</v>
       </c>
       <c r="D50" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E50" t="str">
-        <f>_xll.qlZeroCouponBond("bond05","abc","eur",2,"target",100,I48,"mf",100,+I46)</f>
-        <v>bond05#0000</v>
+        <v>PASS</v>
+      </c>
+      <c r="E50" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F50" t="str">
+        <f>_xll.qlZeroCouponBond(,"abc","eur",2,"target",100,I48,"mf",100,+I46)</f>
+        <v>obj_0000a#0003</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>56</v>
       </c>
-      <c r="B51" t="s">
-        <v>69</v>
+      <c r="B51" t="b">
+        <v>0</v>
       </c>
       <c r="D51" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>FAIL</v>
-      </c>
-      <c r="E51" t="str">
-        <f>_xll.qlBond("bond06","abc","eur",2,"target",100,I48,I45,G51)</f>
-        <v>bond06#0000</v>
+        <v>PASS</v>
+      </c>
+      <c r="E51" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F51" t="str">
+        <f>_xll.qlBond(,"abc","eur",2,"target",100,I48,I45,G51)</f>
+        <v>obj_0000c#0003</v>
       </c>
       <c r="G51" t="str">
         <f>_xll.qlLeg(,J46:J48,I46:I48)</f>
-        <v>obj_00009#0000</v>
+        <v>obj_0000b#0002</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1492,7 +1498,7 @@
         <v>ERROR</v>
       </c>
       <c r="E52" t="e">
-        <f>_xll.qlBondAlive(E51,I47)</f>
+        <f>_xll.qlBondAlive(F51,I47)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -1501,14 +1507,14 @@
         <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D53" s="3" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="E53" t="str">
-        <f>_xll.qlBondMaturityLookup(E51,I47)</f>
+        <f>_xll.qlBondMaturityLookup(F51,I47)</f>
         <v/>
       </c>
     </row>
@@ -1517,15 +1523,15 @@
         <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D54" s="3" t="str">
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
       <c r="E54" t="str">
-        <f>_xll.qlBondMaturitySort(E51)</f>
-        <v>bond06</v>
+        <f>_xll.qlBondMaturitySort(F51)</f>
+        <v>obj_0000c</v>
       </c>
     </row>
   </sheetData>

--- a/UnitTests/Tests/Bonds.xlsx
+++ b/UnitTests/Tests/Bonds.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\reposit\QuantLibXL\UnitTests\Tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="UNIT_TEST" localSheetId="0">Sheet1!$A$3:$E$54</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -222,7 +227,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -280,12 +285,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -327,7 +335,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -360,9 +368,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,6 +420,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -570,7 +612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K54"/>
   <sheetViews>
@@ -579,7 +621,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -632,9 +674,9 @@
         <f>IF(ISERROR(B3),"ERROR",IF(ISERROR(C3),"FAIL",IF(B3=C3,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
-      <c r="E3">
-        <f>_xll.qlBondSettlementDays(F51)</f>
-        <v>2</v>
+      <c r="E3" t="e">
+        <f ca="1">_xll.qlBondSettlementDays(F51)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -648,9 +690,9 @@
         <f t="shared" ref="D4:D54" si="0">IF(ISERROR(B4),"ERROR",IF(ISERROR(C4),"FAIL",IF(B4=C4,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
-      <c r="E4" t="str">
-        <f>_xll.qlBondCalendar(F51)</f>
-        <v>TARGET</v>
+      <c r="E4" t="e">
+        <f ca="1">_xll.qlBondCalendar(F51)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -664,9 +706,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E5">
-        <f>_xll.qlBondNotionals(F51)</f>
-        <v>100</v>
+      <c r="E5" t="e">
+        <f ca="1">_xll.qlBondNotionals(F51)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -680,9 +722,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E6">
-        <f>_xll.qlBondNotional(F51)</f>
-        <v>0</v>
+      <c r="E6" t="e">
+        <f ca="1">_xll.qlBondNotional(F51)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -696,9 +738,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E7">
-        <f>_xll.qlBondMaturityDate(F51)</f>
-        <v>42647</v>
+      <c r="E7" t="e">
+        <f ca="1">_xll.qlBondMaturityDate(F51)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -712,9 +754,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E8">
-        <f>_xll.qlBondIssueDate(F51)</f>
-        <v>42644</v>
+      <c r="E8" t="e">
+        <f ca="1">_xll.qlBondIssueDate(F51)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -728,9 +770,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E9" t="b">
-        <f>_xll.qlBondIsTradable(F51)</f>
-        <v>0</v>
+      <c r="E9" t="e">
+        <f ca="1">_xll.qlBondIsTradable(F51)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -744,9 +786,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E10">
-        <f>_xll.qlBondSettlementDate(F51)</f>
-        <v>42647</v>
+      <c r="E10" t="e">
+        <f ca="1">_xll.qlBondSettlementDate(F51)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -760,9 +802,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E11">
-        <f>_xll.qlBondStartDate(F51)</f>
-        <v>42645</v>
+      <c r="E11" t="e">
+        <f ca="1">_xll.qlBondStartDate(F51)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -776,9 +818,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E12">
-        <f>_xll.qlBondPreviousCashFlowDate(F51)</f>
-        <v>42647</v>
+      <c r="E12" t="e">
+        <f ca="1">_xll.qlBondPreviousCashFlowDate(F51)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -792,9 +834,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E13">
-        <f>_xll.qlBondNextCashFlowDate(F51)</f>
-        <v>0</v>
+      <c r="E13" t="e">
+        <f ca="1">_xll.qlBondNextCashFlowDate(F51)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -808,9 +850,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E14">
-        <f>_xll.qlBondPreviousCashFlowAmount(F51)</f>
-        <v>3</v>
+      <c r="E14" t="e">
+        <f ca="1">_xll.qlBondPreviousCashFlowAmount(F51)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -824,9 +866,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E15">
-        <f>_xll.qlBondNextCashFlowAmount(F51)</f>
-        <v>0</v>
+      <c r="E15" t="e">
+        <f ca="1">_xll.qlBondNextCashFlowAmount(F51)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -840,9 +882,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E16">
-        <f>_xll.qlBondPreviousCouponRate(F47)</f>
-        <v>3</v>
+      <c r="E16" t="e">
+        <f ca="1">_xll.qlBondPreviousCouponRate(F47)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -856,9 +898,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E17">
-        <f>_xll.qlBondNextCouponRate(F47)</f>
-        <v>0</v>
+      <c r="E17" t="e">
+        <f ca="1">_xll.qlBondNextCouponRate(F47)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -872,9 +914,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E18">
-        <f>_xll.qlBondAccrualStartDate(F51,I47)</f>
-        <v>0</v>
+      <c r="E18" t="e">
+        <f ca="1">_xll.qlBondAccrualStartDate(F51,I47)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -888,9 +930,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E19">
-        <f>_xll.qlBondAccrualEndDate(F51,I47)</f>
-        <v>0</v>
+      <c r="E19" t="e">
+        <f ca="1">_xll.qlBondAccrualEndDate(F51,I47)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -904,9 +946,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E20">
-        <f>_xll.qlBondReferencePeriodStart(F51,I47)</f>
-        <v>0</v>
+      <c r="E20" t="e">
+        <f ca="1">_xll.qlBondReferencePeriodStart(F51,I47)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -920,9 +962,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E21">
-        <f>_xll.qlBondReferencePeriodEnd(F51,I47)</f>
-        <v>0</v>
+      <c r="E21" t="e">
+        <f ca="1">_xll.qlBondReferencePeriodEnd(F51,I47)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -936,9 +978,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E22">
-        <f>_xll.qlBondAccrualPeriod(F51,I47)</f>
-        <v>0</v>
+      <c r="E22" t="e">
+        <f ca="1">_xll.qlBondAccrualPeriod(F51,I47)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -952,9 +994,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E23">
-        <f>_xll.qlBondAccrualDays(F51,I47)</f>
-        <v>0</v>
+      <c r="E23" t="e">
+        <f ca="1">_xll.qlBondAccrualDays(F51,I47)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -968,9 +1010,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E24">
-        <f>_xll.qlBondAccruedPeriod(F51,I47)</f>
-        <v>0</v>
+      <c r="E24" t="e">
+        <f ca="1">_xll.qlBondAccruedPeriod(F51,I47)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -984,9 +1026,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E25">
-        <f>_xll.qlBondAccruedDays(F51,I47)</f>
-        <v>0</v>
+      <c r="E25" t="e">
+        <f ca="1">_xll.qlBondAccruedDays(F51,I47)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1000,9 +1042,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E26">
-        <f>_xll.qlBondAccruedAmount(F51,I47)</f>
-        <v>0</v>
+      <c r="E26" t="e">
+        <f ca="1">_xll.qlBondAccruedAmount(F51,I47)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1016,13 +1058,13 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E27">
-        <f>_xll.qlBondCleanPriceFromYieldTermStructure(F51,G27,I47)</f>
-        <v>2.9916897506925206</v>
-      </c>
-      <c r="G27" t="str">
-        <f>_xll.qlFlatForward(,0,"target",1,"actual/360","simple","annual")</f>
-        <v>obj_00002#0002</v>
+      <c r="E27" t="e">
+        <f ca="1">_xll.qlBondCleanPriceFromYieldTermStructure(F51,G27,I47)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G27" t="e">
+        <f ca="1">_xll.qlFlatForward(,0,"target",1,"actual/360","simple","annual")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1036,9 +1078,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E28">
-        <f>_xll.qlBondBpsFromYieldTermStructure(F51,G27,I47)</f>
-        <v>0</v>
+      <c r="E28" t="e">
+        <f ca="1">_xll.qlBondBpsFromYieldTermStructure(F51,G27,I47)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1052,9 +1094,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E29">
-        <f>_xll.qlBondAtmRateFromYieldTermStructure(F47,G27,I47,100)</f>
-        <v>0.99999999999997435</v>
+      <c r="E29" t="e">
+        <f ca="1">_xll.qlBondAtmRateFromYieldTermStructure(F47,G27,I47,100)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1068,9 +1110,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E30">
-        <f>_xll.qlBondCleanPriceFromYield(F51,1,"actual/360","simple","annual",I47)</f>
-        <v>2.9916897506925206</v>
+      <c r="E30" t="e">
+        <f ca="1">_xll.qlBondCleanPriceFromYield(F51,1,"actual/360","simple","annual",I47)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1084,9 +1126,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E31">
-        <f>_xll.qlBondDirtyPriceFromYield(F51,1,"actual/360","simple","annual",I47)</f>
-        <v>2.9916897506925206</v>
+      <c r="E31" t="e">
+        <f ca="1">_xll.qlBondDirtyPriceFromYield(F51,1,"actual/360","simple","annual",I47)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1100,9 +1142,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E32">
-        <f>_xll.qlBondBpsFromYield(F51,1,"actual/360","simple","annual",I47)</f>
-        <v>0</v>
+      <c r="E32" t="e">
+        <f ca="1">_xll.qlBondBpsFromYield(F51,1,"actual/360","simple","annual",I47)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1116,9 +1158,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E33">
-        <f>_xll.qlBondYieldFromCleanPrice(F51,1,"actual/360","simple","annual",I47,0.0000000001,100,0.05)</f>
-        <v>720</v>
+      <c r="E33" t="e">
+        <f ca="1">_xll.qlBondYieldFromCleanPrice(F51,1,"actual/360","simple","annual",I47,0.0000000001,100,0.05)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1132,9 +1174,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E34">
-        <f>_xll.qlBondDurationFromYield(F51,1,"actual/360","simple","annual","modified",I47)</f>
-        <v>2.7700831024930748E-3</v>
+      <c r="E34" t="e">
+        <f ca="1">_xll.qlBondDurationFromYield(F51,1,"actual/360","simple","annual","modified",I47)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1148,9 +1190,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E35">
-        <f>_xll.qlBondConvexityFromYield(F51,1,"actual/360","simple","annual",I47)</f>
-        <v>1.5346720789435321E-5</v>
+      <c r="E35" t="e">
+        <f ca="1">_xll.qlBondConvexityFromYield(F51,1,"actual/360","simple","annual",I47)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -1164,9 +1206,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E36">
-        <f>_xll.qlBondCleanPriceFromZSpread(F51,G27,1,"actual/360","simple","annual",I47)</f>
-        <v>2.9834254143646408</v>
+      <c r="E36" t="e">
+        <f ca="1">_xll.qlBondCleanPriceFromZSpread(F51,G27,1,"actual/360","simple","annual",I47)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -1180,9 +1222,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E37">
-        <f>_xll.qlBondZSpreadFromCleanPrice(F51,1,G27,"actual/360","simple","annual",I47,0.0000000001,100,0)</f>
-        <v>718.99999999999989</v>
+      <c r="E37" t="e">
+        <f ca="1">_xll.qlBondZSpreadFromCleanPrice(F51,1,G27,"actual/360","simple","annual",I47,0.0000000001,100,0)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -1196,9 +1238,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E38">
-        <f>_xll.qlBondCleanPrice(F51)</f>
-        <v>0</v>
+      <c r="E38" t="e">
+        <f ca="1">_xll.qlBondCleanPrice(F51)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -1212,9 +1254,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E39" t="str">
-        <f>_xll.qlBondDescription(F51)</f>
-        <v>abc</v>
+      <c r="E39" t="e">
+        <f ca="1">_xll.qlBondDescription(F51)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -1228,9 +1270,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E40" t="str">
-        <f>_xll.qlBondCurrency(F51)</f>
-        <v>EUR</v>
+      <c r="E40" t="e">
+        <f ca="1">_xll.qlBondCurrency(F51)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -1244,9 +1286,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E41">
-        <f>_xll.qlBondRedemptionAmount(F51)</f>
-        <v>3</v>
+      <c r="E41" t="e">
+        <f ca="1">_xll.qlBondRedemptionAmount(F51)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -1260,9 +1302,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E42">
-        <f>_xll.qlBondRedemptionDate(F51)</f>
-        <v>42647</v>
+      <c r="E42" t="e">
+        <f ca="1">_xll.qlBondRedemptionDate(F51)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -1276,9 +1318,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E43" t="str">
-        <f>_xll.qlBondFlowAnalysis(F51,I47)</f>
-        <v>Payment Date</v>
+      <c r="E43" t="e">
+        <f ca="1">_xll.qlBondFlowAnalysis(F51,I47)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -1293,8 +1335,8 @@
         <v>ERROR</v>
       </c>
       <c r="E44" t="e">
-        <f>_xll.qlBondSetCouponPricer()</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlBondSetCouponPricer()</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -1309,12 +1351,12 @@
         <v>ERROR</v>
       </c>
       <c r="E45" t="e">
-        <f>_xll.qlBondSetCouponPricers()</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I45" s="4">
-        <f>_xll.qlSettingsEvaluationDate()</f>
-        <v>42644</v>
+        <f ca="1">_xll.qlBondSetCouponPricers()</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I45" s="4" t="e">
+        <f ca="1">_xll.qlSettingsEvaluationDate()</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -1329,27 +1371,27 @@
         <v>PASS</v>
       </c>
       <c r="E46" t="b">
-        <f>ISERROR(F46)</f>
-        <v>0</v>
-      </c>
-      <c r="F46" t="str">
-        <f>_xll.qlFixedRateBond(,"abc","eur",2,100,G46,J46:J48,"actual/360","mf",100,I46,"target")</f>
-        <v>obj_00007#0003</v>
-      </c>
-      <c r="G46" t="str">
-        <f>_xll.qlSchedule(,I46,I48,"1D","target","mf","mf","backward",TRUE)</f>
-        <v>obj_00006#0002</v>
-      </c>
-      <c r="I46" s="4">
-        <f>I45+1</f>
-        <v>42645</v>
+        <f ca="1">ISERROR(F46)</f>
+        <v>1</v>
+      </c>
+      <c r="F46" t="e">
+        <f ca="1">_xll.qlFixedRateBond(,"abc","eur",2,100,G46,J46:J48,"actual/360","mf",100,I46,"target")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G46" t="e">
+        <f ca="1">_xll.qlSchedule(,I46,I48,"1D","target","mf","mf","backward",TRUE)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I46" s="4" t="e">
+        <f ca="1">I45+1</f>
+        <v>#NAME?</v>
       </c>
       <c r="J46">
         <v>1</v>
       </c>
-      <c r="K46" t="str">
-        <f>_xll.qlInterestRate(,1,"actual/360","simple","annual")</f>
-        <v>obj_00004#0002</v>
+      <c r="K46" t="e">
+        <f ca="1">_xll.qlInterestRate(,1,"actual/360","simple","annual")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -1364,23 +1406,23 @@
         <v>PASS</v>
       </c>
       <c r="E47" t="b">
-        <f t="shared" ref="E47:E51" si="1">ISERROR(F47)</f>
-        <v>0</v>
-      </c>
-      <c r="F47" t="str">
-        <f>_xll.qlFixedRateBond2(,"abc","EUR",2,100,G46,K48,"mf",100,I46,"target")</f>
-        <v>obj_00009#0003</v>
-      </c>
-      <c r="I47" s="4">
-        <f t="shared" ref="I47:I48" si="2">I46+1</f>
-        <v>42646</v>
+        <f t="shared" ref="E47:E51" ca="1" si="1">ISERROR(F47)</f>
+        <v>1</v>
+      </c>
+      <c r="F47" t="e">
+        <f ca="1">_xll.qlFixedRateBond2(,"abc","EUR",2,100,G46,K48,"mf",100,I46,"target")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I47" s="4" t="e">
+        <f t="shared" ref="I47:I48" ca="1" si="2">I46+1</f>
+        <v>#NAME?</v>
       </c>
       <c r="J47">
         <v>2</v>
       </c>
-      <c r="K47" t="str">
-        <f>_xll.qlInterestRate(,2,"actual/360","simple","annual")</f>
-        <v>obj_00001#0002</v>
+      <c r="K47" t="e">
+        <f ca="1">_xll.qlInterestRate(,2,"actual/360","simple","annual")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -1395,27 +1437,27 @@
         <v>PASS</v>
       </c>
       <c r="E48" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F48" t="str">
-        <f>_xll.qlFloatingRateBond(,"abc","eur",2,"mf",100,G46,2,FALSE,"actual/360",1,1,G48,0,2,100,+I46)</f>
-        <v>obj_00008#0003</v>
-      </c>
-      <c r="G48" t="str">
-        <f>_xll.qlIborIndex(,"euribor","1d",2,"eur","target","mf",TRUE,"actual/360")</f>
-        <v>obj_00000#0002</v>
-      </c>
-      <c r="I48" s="4">
-        <f t="shared" si="2"/>
-        <v>42647</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F48" t="e">
+        <f ca="1">_xll.qlFloatingRateBond(,"abc","eur",2,"mf",100,G46,2,FALSE,"actual/360",1,1,G48,0,2,100,+I46)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G48" t="e">
+        <f ca="1">_xll.qlIborIndex(,"euribor","1d",2,"eur","target","mf",TRUE,"actual/360")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I48" s="4" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
       <c r="J48">
         <v>3</v>
       </c>
-      <c r="K48" t="str">
-        <f>_xll.qlInterestRate(,3,"actual/360","simple","annual")</f>
-        <v>obj_00003#0002</v>
+      <c r="K48" t="e">
+        <f ca="1">_xll.qlInterestRate(,3,"actual/360","simple","annual")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1430,16 +1472,16 @@
         <v>PASS</v>
       </c>
       <c r="E49" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F49" t="str">
-        <f>_xll.qlCmsRateBond(,"abc","eur",2,"mf",100,+G46,2,FALSE,"actual/360",1,1,G49,0,2,100,I46)</f>
-        <v>obj_0000d#0003</v>
-      </c>
-      <c r="G49" t="str">
-        <f>_xll.qlSwapIndex(,"euribor","1d",2,"eur","target","1d","mf","actual/360",G48)</f>
-        <v>obj_00005#0002</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F49" t="e">
+        <f ca="1">_xll.qlCmsRateBond(,"abc","eur",2,"mf",100,+G46,2,FALSE,"actual/360",1,1,G49,0,2,100,I46)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G49" t="e">
+        <f ca="1">_xll.qlSwapIndex(,"euribor","1d",2,"eur","target","1d","mf","actual/360",G48)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1454,12 +1496,12 @@
         <v>PASS</v>
       </c>
       <c r="E50" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F50" t="str">
-        <f>_xll.qlZeroCouponBond(,"abc","eur",2,"target",100,I48,"mf",100,+I46)</f>
-        <v>obj_0000a#0003</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F50" t="e">
+        <f ca="1">_xll.qlZeroCouponBond(,"abc","eur",2,"target",100,I48,"mf",100,+I46)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1474,16 +1516,16 @@
         <v>PASS</v>
       </c>
       <c r="E51" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F51" t="str">
-        <f>_xll.qlBond(,"abc","eur",2,"target",100,I48,I45,G51)</f>
-        <v>obj_0000c#0003</v>
-      </c>
-      <c r="G51" t="str">
-        <f>_xll.qlLeg(,J46:J48,I46:I48)</f>
-        <v>obj_0000b#0002</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F51" t="e">
+        <f ca="1">_xll.qlBond(,"abc","eur",2,"target",100,I48,I45,G51)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G51" t="e">
+        <f ca="1">_xll.qlLeg(,J46:J48,I46:I48)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1498,8 +1540,8 @@
         <v>ERROR</v>
       </c>
       <c r="E52" t="e">
-        <f>_xll.qlBondAlive(F51,I47)</f>
-        <v>#N/A</v>
+        <f ca="1">_xll.qlBondAlive(F51,I47)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1513,9 +1555,9 @@
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
-      <c r="E53" t="str">
-        <f>_xll.qlBondMaturityLookup(F51,I47)</f>
-        <v/>
+      <c r="E53" t="e">
+        <f ca="1">_xll.qlBondMaturityLookup(F51,I47)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1529,9 +1571,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E54" t="str">
-        <f>_xll.qlBondMaturitySort(F51)</f>
-        <v>obj_0000c</v>
+      <c r="E54" t="e">
+        <f ca="1">_xll.qlBondMaturitySort(F51)</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -1541,26 +1583,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
